--- a/swings/2021-11-22/BINANCE_SPOT_SUSHI_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_SUSHI_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>8.513</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>8.673</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>8.579000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +833,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>8.667999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>8.518000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1053,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1108,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>8.651999999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1163,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1216,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>8.305</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1347,6 +1381,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>8.446999999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1438,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>8.388</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1495,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>8.457000000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1507,6 +1550,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1603,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>8.173</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1768,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>8.282999999999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1773,6 +1825,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>8.193</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1880,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1935,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>8.294</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1933,6 +1992,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>8.231</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1985,6 +2047,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2039,6 +2102,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>8.274000000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2091,6 +2157,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2143,6 +2210,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2197,6 +2265,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>8.149000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2249,6 +2320,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2373,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2355,6 +2428,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>8.353999999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2409,6 +2485,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>8.233000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2463,6 +2542,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>8.34</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2517,6 +2599,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>8.265000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2569,6 +2654,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2621,6 +2707,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2760,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2813,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2868,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>8.420999999999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2831,6 +2923,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2885,6 +2978,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>8.055</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2939,6 +3035,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>8.374000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3090,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3043,6 +3143,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3097,6 +3198,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>8.266</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3253,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3306,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3255,6 +3361,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>8.379</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3307,6 +3416,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3361,6 +3471,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>8.313000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3526,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3467,6 +3581,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>8.426</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3519,6 +3636,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3571,6 +3689,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3623,6 +3742,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3675,6 +3795,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3729,6 +3850,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>8.314</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3783,6 +3907,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>8.388999999999999</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3835,6 +3962,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3887,6 +4015,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3941,6 +4070,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>8.321</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3995,6 +4127,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>8.381</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4049,6 +4184,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>8.342000000000001</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4101,6 +4239,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4155,6 +4294,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>8.429</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4209,6 +4351,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>8.364000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4263,6 +4408,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>8.426</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4315,6 +4463,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4369,6 +4518,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>8.353999999999999</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4421,6 +4573,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4473,6 +4626,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4527,6 +4681,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>8.483000000000001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4581,6 +4738,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>8.369999999999999</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4635,6 +4795,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>8.414999999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4687,6 +4850,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4741,6 +4905,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>8.23</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4793,6 +4960,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4845,6 +5013,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4899,6 +5068,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>8.621</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4953,6 +5125,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>8.468999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5007,6 +5182,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5059,6 +5237,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5111,6 +5290,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5165,6 +5345,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>8.368</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5219,6 +5402,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>8.446</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5273,6 +5459,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>8.382999999999999</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5327,6 +5516,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>8.446</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5381,6 +5573,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5433,6 +5628,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5485,6 +5681,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5539,6 +5736,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>8.449</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5593,6 +5793,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>8.407</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5647,6 +5850,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>8.452</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5701,6 +5907,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>8.374000000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5753,6 +5962,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5807,6 +6017,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>8.459</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5859,6 +6072,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5911,6 +6125,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5965,6 +6180,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>8.359</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6019,6 +6237,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>8.396000000000001</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6071,6 +6292,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6125,6 +6347,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>8.31</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6179,6 +6404,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>8.365</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6233,6 +6461,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>8.324999999999999</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6287,6 +6518,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>8.364000000000001</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6339,6 +6573,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6391,6 +6626,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6443,6 +6679,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6495,6 +6732,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6547,6 +6785,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6601,6 +6840,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>8.215999999999999</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6655,6 +6897,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>8.337</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6707,6 +6952,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6759,6 +7005,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6811,6 +7058,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6865,6 +7113,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>8.122</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6919,6 +7170,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>8.223000000000001</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6973,6 +7227,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>8.157</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7027,6 +7284,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>8.234999999999999</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7081,6 +7341,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>8.170999999999999</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7135,6 +7398,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>8.209</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7187,6 +7453,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7241,6 +7508,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>8.130000000000001</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7293,6 +7563,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7345,6 +7616,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7399,6 +7671,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>8.237</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7453,6 +7728,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>8.173999999999999</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7505,6 +7783,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7559,6 +7838,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>8.279</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7611,6 +7893,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7665,6 +7948,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>8.222</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7717,6 +8003,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7771,6 +8058,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>8.382999999999999</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7823,6 +8113,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7877,6 +8168,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>8.315</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7931,6 +8225,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>8.361000000000001</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7983,6 +8280,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8035,6 +8333,7 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8089,6 +8388,9 @@
           <t>SUSHIUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>8.206</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8142,6 +8444,9 @@
         <is>
           <t>SUSHIUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>8.247</v>
       </c>
     </row>
   </sheetData>
